--- a/maps/xtehr2zibs2024/Patient-full.xlsx
+++ b/maps/xtehr2zibs2024/Patient-full.xlsx
@@ -1295,7 +1295,11 @@
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Patient.GenderIdentity</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>GenderIdentity</t>
@@ -1387,7 +1391,11 @@
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Patient.MultipleBirthSequence</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>MultipleBirthSequence</t>
